--- a/data/case1/14/P_device_2.xlsx
+++ b/data/case1/14/P_device_2.xlsx
@@ -62,42 +62,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.049342456058093127</v>
+        <v>-0.059167101389184996</v>
       </c>
       <c r="B1" s="0">
-        <v>0.049342455268204126</v>
+        <v>0.059167100827169181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.028511057481582339</v>
+        <v>0.074388803205565776</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.028511058341556237</v>
+        <v>-0.074388803750090618</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.019182439593166418</v>
+        <v>0.053185770616089971</v>
       </c>
       <c r="B3" s="0">
-        <v>0.019182438722441467</v>
+        <v>-0.053185771188473556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.039557193775982505</v>
+        <v>0.045777373761806232</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.039557194598169601</v>
+        <v>-0.04577737436611453</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.045787278255146988</v>
+        <v>-0.032459640022052302</v>
       </c>
       <c r="B5" s="0">
-        <v>0.04578727745650979</v>
+        <v>0.032459639413312445</v>
       </c>
     </row>
   </sheetData>
